--- a/Master/Survey/Encuestas.xlsx
+++ b/Master/Survey/Encuestas.xlsx
@@ -16,6 +16,538 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="175">
+  <si>
+    <t>Track</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t># Track</t>
+  </si>
+  <si>
+    <t># Session</t>
+  </si>
+  <si>
+    <t>Survey URL</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT1S1</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT1S2</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT1S3</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT1S4</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT1S5</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT2S2</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT2S1</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT2S3</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT2S4</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT2S5</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT3S1</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT3S2</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT3S3</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT3S4</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT3S5</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT4S1</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT4S2</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT4S3</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT4S4</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT4S5</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT5S1</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT5S2</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT5S3</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT5S4</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT5S5</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT6S1</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT6S2</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT6S3</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT6S4</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT6S5</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT7S1</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT7S2</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT7S3</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT7S4</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT7S5</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT8S1</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT8S2</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT8S3</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT8S4</t>
+  </si>
+  <si>
+    <t>http://aka.ms/DOTNETT8S5</t>
+  </si>
+  <si>
+    <t>Some dirty, quick and well-known tricks to hack your bad .NET WebApps</t>
+  </si>
+  <si>
+    <t>Chema Alonso</t>
+  </si>
+  <si>
+    <t>Autenticación y autorización en ASP.NET Core 1.0</t>
+  </si>
+  <si>
+    <t>Hugo Biarge</t>
+  </si>
+  <si>
+    <t>NET Core 1.0 y ASP.NET Core 1.0</t>
+  </si>
+  <si>
+    <t>Luis Ruiz Pavon</t>
+  </si>
+  <si>
+    <t>ASP.NET5 Deep Dive</t>
+  </si>
+  <si>
+    <t>Eduard Tomas</t>
+  </si>
+  <si>
+    <t>Crea tus aplicaciones web con SPA, Angular2, Web Api y Visual Studio Code</t>
+  </si>
+  <si>
+    <t>Francesc Jaumot Peña / Jose Cousiño</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Tools/DevOps</t>
+  </si>
+  <si>
+    <t>Cuidando la visibilidad en nuestras arquitecturas</t>
+  </si>
+  <si>
+    <t>Title to be revealed</t>
+  </si>
+  <si>
+    <t>Aprovisionamiento y configuración de VMs con Resource Manager y PowerShell DSC</t>
+  </si>
+  <si>
+    <t>Gestiona tus propias dependencias con NuGet + Visual Studio Team Services vs MyGet</t>
+  </si>
+  <si>
+    <t>Planifica tu integración continua con Visual Studio Team Services.</t>
+  </si>
+  <si>
+    <t>Rodrigo Corral</t>
+  </si>
+  <si>
+    <t>Microsoft Corp</t>
+  </si>
+  <si>
+    <t>Ibon Landa</t>
+  </si>
+  <si>
+    <t>Luis Fraile</t>
+  </si>
+  <si>
+    <t>Luis Alfonso Rey del Saz</t>
+  </si>
+  <si>
+    <t>Cross-Plat</t>
+  </si>
+  <si>
+    <t>MvvmCross, desarrollo multiplataforma mediante patrones con Xamarin y C#</t>
+  </si>
+  <si>
+    <t>Rafael Serna Medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rider - A Cross-Platform .NET IDE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadi Hariri
+</t>
+  </si>
+  <si>
+    <t>Xamarin en aplicaciones corporativas con Azure. Juntos pero no revueltos!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Cuello </t>
+  </si>
+  <si>
+    <t>Hasta el beacon, todo es bluetooth</t>
+  </si>
+  <si>
+    <t>Gorka Madariaga</t>
+  </si>
+  <si>
+    <t>Aumentando la productividad en el desarrollo Xamarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Javier Suárez Ruiz</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>Apphood: La historia de una app Windows 10</t>
+  </si>
+  <si>
+    <t>Adrian Fernández</t>
+  </si>
+  <si>
+    <t>Deep dive into background tasks in the Universal Windows Platform</t>
+  </si>
+  <si>
+    <t>Matteo Pagani</t>
+  </si>
+  <si>
+    <t>Who is Who, Cortana?</t>
+  </si>
+  <si>
+    <t>Marc Rubiño</t>
+  </si>
+  <si>
+    <t>Adaptando controles a Continuum</t>
+  </si>
+  <si>
+    <t>Jon Burguera / Alberto Guerra</t>
+  </si>
+  <si>
+    <t>Microsoft Windows App Studio: Apps para Windows 10</t>
+  </si>
+  <si>
+    <t>Martin Vega</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Desarrollo de aplicaciones basadas en microservicios en .NET</t>
+  </si>
+  <si>
+    <t>Docker para desarrolladores .NET</t>
+  </si>
+  <si>
+    <t>De 0 a Azure en 75 minutos</t>
+  </si>
+  <si>
+    <t>El arte del logging en el Cloud</t>
+  </si>
+  <si>
+    <t>3 claves para escalar en Azure - lecciones aprendidas construyendo Plastic Cloud</t>
+  </si>
+  <si>
+    <t>Roberto González</t>
+  </si>
+  <si>
+    <t>Adrian Diaz Cervera</t>
+  </si>
+  <si>
+    <t>Quique Martínez</t>
+  </si>
+  <si>
+    <t>Luis Guerrero</t>
+  </si>
+  <si>
+    <t>Pablo Santos Luaces</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power BI para desarrolladores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Cortés </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitorizando espacios mediante IoT y Azure </t>
+  </si>
+  <si>
+    <t>Manu Delgado</t>
+  </si>
+  <si>
+    <t>Entity Framework Core 1.0</t>
+  </si>
+  <si>
+    <t>Unai Zorrilla</t>
+  </si>
+  <si>
+    <t>Como hacer tuning a capas de acceso a datos en .NET</t>
+  </si>
+  <si>
+    <t>Enrique Catalá</t>
+  </si>
+  <si>
+    <t>Mejores Prácticas de conectividad, Seguridad y uso de CLR en SQL Server: Lecciones Aprendidas desde las trinchera</t>
+  </si>
+  <si>
+    <t>Pablo Gavela Lopez / José Manuel Jurado Diaz</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>Pero… C# no es un lenguaje de programación funcional, ¿verdad?</t>
+  </si>
+  <si>
+    <t>Roslyn: Hello from the other compiler…</t>
+  </si>
+  <si>
+    <t>Async best practices</t>
+  </si>
+  <si>
+    <t>Web funcional con F#</t>
+  </si>
+  <si>
+    <t>Rx, la joya oculta de NET</t>
+  </si>
+  <si>
+    <t>Alejandro Campos</t>
+  </si>
+  <si>
+    <t>Fernando Escolar / Juan Bacardit Barrer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lluís Franco </t>
+  </si>
+  <si>
+    <t>Alex Casquete</t>
+  </si>
+  <si>
+    <t>Edin Kapic</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>50 piezas de Lego.  (No recomendada para mayores de 18 años)</t>
+  </si>
+  <si>
+    <t>Isabel Cabezas y Bea García</t>
+  </si>
+  <si>
+    <t>Tips and Tricks para el desarrollo de soluciones IoT en .Net</t>
+  </si>
+  <si>
+    <t>Juan Manuel Servera</t>
+  </si>
+  <si>
+    <t>Modernizando las fábricas con Azure IoT hacia el concepto de Factorías 4.0</t>
+  </si>
+  <si>
+    <t>Alberto Diaz Martin</t>
+  </si>
+  <si>
+    <t>Band 2 y la domótica casera</t>
+  </si>
+  <si>
+    <t>Toni Recio</t>
+  </si>
+  <si>
+    <t>Wearables con C# y .NET: Microsoft Band 2, Apple Watch y Google Wear</t>
+  </si>
+  <si>
+    <t>Josue Yeray Julian Ferreiro</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>T1S1</t>
+  </si>
+  <si>
+    <t>T1S2</t>
+  </si>
+  <si>
+    <t>T1S3</t>
+  </si>
+  <si>
+    <t>T1S4</t>
+  </si>
+  <si>
+    <t>T1S5</t>
+  </si>
+  <si>
+    <t>T2S1</t>
+  </si>
+  <si>
+    <t>T2S2</t>
+  </si>
+  <si>
+    <t>T2S3</t>
+  </si>
+  <si>
+    <t>T2S4</t>
+  </si>
+  <si>
+    <t>T2S5</t>
+  </si>
+  <si>
+    <t>T3S1</t>
+  </si>
+  <si>
+    <t>T3S2</t>
+  </si>
+  <si>
+    <t>T3S3</t>
+  </si>
+  <si>
+    <t>T3S4</t>
+  </si>
+  <si>
+    <t>T3S5</t>
+  </si>
+  <si>
+    <t>T4S1</t>
+  </si>
+  <si>
+    <t>T4S2</t>
+  </si>
+  <si>
+    <t>T4S3</t>
+  </si>
+  <si>
+    <t>T4S4</t>
+  </si>
+  <si>
+    <t>T4S5</t>
+  </si>
+  <si>
+    <t>T5S1</t>
+  </si>
+  <si>
+    <t>T5S2</t>
+  </si>
+  <si>
+    <t>T5S3</t>
+  </si>
+  <si>
+    <t>T5S4</t>
+  </si>
+  <si>
+    <t>T5S5</t>
+  </si>
+  <si>
+    <t>T6S1</t>
+  </si>
+  <si>
+    <t>T6S2</t>
+  </si>
+  <si>
+    <t>T6S3</t>
+  </si>
+  <si>
+    <t>T6S4</t>
+  </si>
+  <si>
+    <t>T6S5</t>
+  </si>
+  <si>
+    <t>T7S1</t>
+  </si>
+  <si>
+    <t>T7S2</t>
+  </si>
+  <si>
+    <t>T7S3</t>
+  </si>
+  <si>
+    <t>T7S4</t>
+  </si>
+  <si>
+    <t>T7S5</t>
+  </si>
+  <si>
+    <t>T8S1</t>
+  </si>
+  <si>
+    <t>T8S2</t>
+  </si>
+  <si>
+    <t>T8S3</t>
+  </si>
+  <si>
+    <t>T8S4</t>
+  </si>
+  <si>
+    <t>T8S5</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +581,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +599,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G41" totalsRowShown="0">
+  <autoFilter ref="A1:G41"/>
+  <tableColumns count="7">
+    <tableColumn id="2" name="# Track" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="# Session" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Track" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Session" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Speaker" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Survey URL" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="QR" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -144,6 +693,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +745,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,12 +914,1203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F31" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A655A170DB5584FB5BF1EFD28586C3A" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac9eeb9d9b9ba19d34f79db8b3e24ee8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b2dfeed-2da1-4ef4-b600-f5543001ef98" xmlns:ns3="ed015050-a57a-4d39-9cd8-b09b64473eb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="201ee68f6898ad23f8753cba542e5bc7" ns2:_="" ns3:_="">
+    <xsd:import namespace="2b2dfeed-2da1-4ef4-b600-f5543001ef98"/>
+    <xsd:import namespace="ed015050-a57a-4d39-9cd8-b09b64473eb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:_ShortcutUrl" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2b2dfeed-2da1-4ef4-b600-f5543001ef98" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ed015050-a57a-4d39-9cd8-b09b64473eb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ShortcutUrl" ma:index="10" nillable="true" ma:displayName="_ShortcutUrl" ma:hidden="true" ma:internalName="c000__ShortcutUrl">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ShortcutUrl xmlns="ed015050-a57a-4d39-9cd8-b09b64473eb7">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </_ShortcutUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2066CBA5-4DFF-4A08-81EC-6B59FED5B9DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2b2dfeed-2da1-4ef4-b600-f5543001ef98"/>
+    <ds:schemaRef ds:uri="ed015050-a57a-4d39-9cd8-b09b64473eb7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D665C7-5341-4B0E-A2C6-E34E3CF82CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6664D429-49D0-48E7-88C6-595FBF0EE8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ed015050-a57a-4d39-9cd8-b09b64473eb7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2b2dfeed-2da1-4ef4-b600-f5543001ef98"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Master/Survey/Encuestas.xlsx
+++ b/Master/Survey/Encuestas.xlsx
@@ -171,9 +171,6 @@
     <t>Hugo Biarge</t>
   </si>
   <si>
-    <t>NET Core 1.0 y ASP.NET Core 1.0</t>
-  </si>
-  <si>
     <t>Luis Ruiz Pavon</t>
   </si>
   <si>
@@ -546,6 +543,9 @@
   </si>
   <si>
     <t>T8S5</t>
+  </si>
+  <si>
+    <t>“Hola!” .NET Core 1.0</t>
   </si>
 </sst>
 </file>
@@ -917,7 +917,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -974,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -997,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,19 +1008,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,19 +1031,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,19 +1054,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,19 +1077,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,19 +1100,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,19 +1123,19 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1146,19 +1146,19 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1169,19 +1169,19 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1192,19 +1192,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1215,19 +1215,19 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1238,19 +1238,19 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
         <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1261,19 +1261,19 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1284,19 +1284,19 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
         <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,19 +1307,19 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1330,19 +1330,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
         <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,19 +1353,19 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1376,19 +1376,19 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
         <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1399,19 +1399,19 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
         <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1422,19 +1422,19 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1445,19 +1445,19 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,19 +1468,19 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1491,19 +1491,19 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,19 +1514,19 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,19 +1537,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>102</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,19 +1560,19 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
         <v>104</v>
-      </c>
-      <c r="E28" t="s">
-        <v>105</v>
       </c>
       <c r="F28" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,19 +1583,19 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
         <v>106</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
       </c>
       <c r="F29" t="s">
         <v>33</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,19 +1606,19 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
         <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,19 +1629,19 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
         <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>111</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,19 +1652,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="D32" t="s">
-        <v>113</v>
-      </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,19 +1675,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
         <v>37</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1698,19 +1698,19 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
         <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,19 +1721,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
         <v>39</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1744,19 +1744,19 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1767,19 +1767,19 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
         <v>123</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>124</v>
-      </c>
-      <c r="E37" t="s">
-        <v>125</v>
       </c>
       <c r="F37" t="s">
         <v>41</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1790,19 +1790,19 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
         <v>126</v>
-      </c>
-      <c r="E38" t="s">
-        <v>127</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1813,19 +1813,19 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
         <v>128</v>
-      </c>
-      <c r="E39" t="s">
-        <v>129</v>
       </c>
       <c r="F39" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1836,19 +1836,19 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
         <v>130</v>
-      </c>
-      <c r="E40" t="s">
-        <v>131</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1859,19 +1859,19 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
         <v>132</v>
-      </c>
-      <c r="E41" t="s">
-        <v>133</v>
       </c>
       <c r="F41" t="s">
         <v>45</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1879,13 +1879,23 @@
     <hyperlink ref="F31" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A655A170DB5584FB5BF1EFD28586C3A" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac9eeb9d9b9ba19d34f79db8b3e24ee8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b2dfeed-2da1-4ef4-b600-f5543001ef98" xmlns:ns3="ed015050-a57a-4d39-9cd8-b09b64473eb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="201ee68f6898ad23f8753cba542e5bc7" ns2:_="" ns3:_="">
     <xsd:import namespace="2b2dfeed-2da1-4ef4-b600-f5543001ef98"/>
@@ -2051,15 +2061,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2072,6 +2073,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D665C7-5341-4B0E-A2C6-E34E3CF82CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2066CBA5-4DFF-4A08-81EC-6B59FED5B9DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2086,14 +2095,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D665C7-5341-4B0E-A2C6-E34E3CF82CF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
